--- a/windows_control/第1次测试_resolutionTest.xlsx
+++ b/windows_control/第1次测试_resolutionTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\pythonProject_seevision\windows_control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7211EA4-9A39-4263-8D3C-B12432B56A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56917C5-443A-447C-ACAF-2D97808CCA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4950" yWindow="1335" windowWidth="25635" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,382 +49,384 @@
     <t>7048</t>
   </si>
   <si>
+    <t xml:space="preserve"> 28.25</t>
+  </si>
+  <si>
+    <t>8640</t>
+  </si>
+  <si>
+    <t>12573</t>
+  </si>
+  <si>
+    <t>YUY2 320×180P 30(P 16:9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30</t>
+  </si>
+  <si>
+    <t>28604</t>
+  </si>
+  <si>
+    <t>YUY2 320×240P 30(P 4:3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29.98</t>
+  </si>
+  <si>
+    <t>38139</t>
+  </si>
+  <si>
+    <t>YUY2 352×288P 30(P 11:9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29.57</t>
+  </si>
+  <si>
+    <t>48071</t>
+  </si>
+  <si>
+    <t>YUY2 480×270P 30(P 16:9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29.79</t>
+  </si>
+  <si>
+    <t>64360</t>
+  </si>
+  <si>
+    <t>YUY2 640×480P 30(P 4:3)</t>
+  </si>
+  <si>
+    <t>152409</t>
+  </si>
+  <si>
+    <t>YUY2 800×600P 30(P 4:3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29.78</t>
+  </si>
+  <si>
+    <t>238139</t>
+  </si>
+  <si>
+    <t>YUY2 960×540P 30(P 16:9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30.15</t>
+  </si>
+  <si>
+    <t>257440</t>
+  </si>
+  <si>
+    <t>MJPG 1920×1080P 30(P 16:9)</t>
+  </si>
+  <si>
+    <t>129919</t>
+  </si>
+  <si>
+    <t>MJPG 160×90P 30(P 16:9)</t>
+  </si>
+  <si>
+    <t>2200</t>
+  </si>
+  <si>
+    <t>MJPG 160×120P 30(P 4:3)</t>
+  </si>
+  <si>
+    <t>3590</t>
+  </si>
+  <si>
+    <t>MJPG 176×144P 30(P 11:9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29.53</t>
+  </si>
+  <si>
+    <t>4412</t>
+  </si>
+  <si>
+    <t>MJPG 320×180P 30(P 16:9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30.03</t>
+  </si>
+  <si>
+    <t>9093</t>
+  </si>
+  <si>
+    <t>MJPG 320×240P 30(P 4:3)</t>
+  </si>
+  <si>
+    <t>10784</t>
+  </si>
+  <si>
+    <t>MJPG 352×288P 30(P 11:9)</t>
+  </si>
+  <si>
+    <t>13091</t>
+  </si>
+  <si>
+    <t>MJPG 480×270P 30(P 16:9)</t>
+  </si>
+  <si>
+    <t>16661</t>
+  </si>
+  <si>
+    <t>MJPG 640×360P 30(P 16:9)</t>
+  </si>
+  <si>
+    <t>25331</t>
+  </si>
+  <si>
+    <t>MJPG 640×480P 30(P 4:3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30.04</t>
+  </si>
+  <si>
+    <t>29596</t>
+  </si>
+  <si>
+    <t>MJPG 800×600P 30(P 4:3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29.99</t>
+  </si>
+  <si>
+    <t>40827</t>
+  </si>
+  <si>
+    <t>MJPG 960×540P 30(P 16:9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30.18</t>
+  </si>
+  <si>
+    <t>50826</t>
+  </si>
+  <si>
+    <t>MJPG 1024×576P 30(P 16:9)</t>
+  </si>
+  <si>
+    <t>47256</t>
+  </si>
+  <si>
+    <t>MJPG 1280×720P 30(P 16:9)</t>
+  </si>
+  <si>
+    <t>65204</t>
+  </si>
+  <si>
+    <t>MJPG 2560×1440P 30(P 16:9)</t>
+  </si>
+  <si>
+    <t>124503</t>
+  </si>
+  <si>
+    <t>MJPG 3840×2160P 30(P 16:9)</t>
+  </si>
+  <si>
+    <t>176314</t>
+  </si>
+  <si>
+    <t>H264 1920×1080P 30(P 16:9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29.56</t>
+  </si>
+  <si>
+    <t>12981</t>
+  </si>
+  <si>
+    <t>H264 1280×720P 30(P 16:9)</t>
+  </si>
+  <si>
+    <t>10742</t>
+  </si>
+  <si>
+    <t>H264 1024×576P 30(P 16:9)</t>
+  </si>
+  <si>
+    <t>5713</t>
+  </si>
+  <si>
+    <t>H264 960×540P 30(P 16:9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29.5</t>
+  </si>
+  <si>
+    <t>12356</t>
+  </si>
+  <si>
+    <t>H264 800×600P 30(P 4:3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29.73</t>
+  </si>
+  <si>
+    <t>11037</t>
+  </si>
+  <si>
+    <t>H264 640×480P 30(P 4:3)</t>
+  </si>
+  <si>
+    <t>4598</t>
+  </si>
+  <si>
+    <t>H264 640×360P 30(P 16:9)</t>
+  </si>
+  <si>
+    <t>4641</t>
+  </si>
+  <si>
+    <t>H264 480×270P 30(P 16:9)</t>
+  </si>
+  <si>
+    <t>4579</t>
+  </si>
+  <si>
+    <t>H264 352×288P 30(P 11:9)</t>
+  </si>
+  <si>
+    <t>3109</t>
+  </si>
+  <si>
+    <t>H264 320×240P 30(P 4:3)</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>H264 320×180P 30(P 16:9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29.76</t>
+  </si>
+  <si>
+    <t>2427</t>
+  </si>
+  <si>
+    <t>H264 2560×1440P 30(P 16:9)</t>
+  </si>
+  <si>
+    <t>17738</t>
+  </si>
+  <si>
+    <t>H264 3840×2160P 30(P 16:9)</t>
+  </si>
+  <si>
+    <t>16938</t>
+  </si>
+  <si>
+    <t>H265 1920×1080P 30(P 16:9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29.8</t>
+  </si>
+  <si>
+    <t>12984</t>
+  </si>
+  <si>
+    <t>H265 1280×720P 30(P 16:9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28.44</t>
+  </si>
+  <si>
+    <t>7566</t>
+  </si>
+  <si>
+    <t>H265 1024×576P 30(P 16:9)</t>
+  </si>
+  <si>
+    <t>5201</t>
+  </si>
+  <si>
+    <t>H265 960×540P 30(P 16:9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30.06</t>
+  </si>
+  <si>
+    <t>12260</t>
+  </si>
+  <si>
+    <t>H265 800×600P 30(P 4:3)</t>
+  </si>
+  <si>
+    <t>12513</t>
+  </si>
+  <si>
+    <t>H265 640×480P 30(P 4:3)</t>
+  </si>
+  <si>
+    <t>4368</t>
+  </si>
+  <si>
+    <t>H265 640×360P 30(P 16:9)</t>
+  </si>
+  <si>
+    <t>4244</t>
+  </si>
+  <si>
+    <t>H265 480×270P 30(P 16:9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28.87</t>
+  </si>
+  <si>
+    <t>4044</t>
+  </si>
+  <si>
+    <t>H265 352×288P 30(P 11:9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29.32</t>
+  </si>
+  <si>
+    <t>2916</t>
+  </si>
+  <si>
+    <t>H265 320×240P 30(P 4:3)</t>
+  </si>
+  <si>
+    <t>2632</t>
+  </si>
+  <si>
+    <t>H265 320×180P 30(P 16:9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29.55</t>
+  </si>
+  <si>
+    <t>2293</t>
+  </si>
+  <si>
+    <t>H265 2560×1440P 30(P 16:9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28.63</t>
+  </si>
+  <si>
+    <t>15521</t>
+  </si>
+  <si>
+    <t>H265 3840×2160P 30(P 16:9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27.94</t>
+  </si>
+  <si>
+    <t>15406</t>
+  </si>
+  <si>
     <t>YUY2 160×120P 30(P 4:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 28.25</t>
-  </si>
-  <si>
-    <t>8640</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>YUY2 176×144P 30(P 11:9)</t>
-  </si>
-  <si>
-    <t>12573</t>
-  </si>
-  <si>
-    <t>YUY2 320×180P 30(P 16:9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 30</t>
-  </si>
-  <si>
-    <t>28604</t>
-  </si>
-  <si>
-    <t>YUY2 320×240P 30(P 4:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 29.98</t>
-  </si>
-  <si>
-    <t>38139</t>
-  </si>
-  <si>
-    <t>YUY2 352×288P 30(P 11:9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 29.57</t>
-  </si>
-  <si>
-    <t>48071</t>
-  </si>
-  <si>
-    <t>YUY2 480×270P 30(P 16:9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 29.79</t>
-  </si>
-  <si>
-    <t>64360</t>
-  </si>
-  <si>
-    <t>YUY2 640×480P 30(P 4:3)</t>
-  </si>
-  <si>
-    <t>152409</t>
-  </si>
-  <si>
-    <t>YUY2 800×600P 30(P 4:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 29.78</t>
-  </si>
-  <si>
-    <t>238139</t>
-  </si>
-  <si>
-    <t>YUY2 960×540P 30(P 16:9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 30.15</t>
-  </si>
-  <si>
-    <t>257440</t>
-  </si>
-  <si>
-    <t>MJPG 1920×1080P 30(P 16:9)</t>
-  </si>
-  <si>
-    <t>129919</t>
-  </si>
-  <si>
-    <t>MJPG 160×90P 30(P 16:9)</t>
-  </si>
-  <si>
-    <t>2200</t>
-  </si>
-  <si>
-    <t>MJPG 160×120P 30(P 4:3)</t>
-  </si>
-  <si>
-    <t>3590</t>
-  </si>
-  <si>
-    <t>MJPG 176×144P 30(P 11:9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 29.53</t>
-  </si>
-  <si>
-    <t>4412</t>
-  </si>
-  <si>
-    <t>MJPG 320×180P 30(P 16:9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 30.03</t>
-  </si>
-  <si>
-    <t>9093</t>
-  </si>
-  <si>
-    <t>MJPG 320×240P 30(P 4:3)</t>
-  </si>
-  <si>
-    <t>10784</t>
-  </si>
-  <si>
-    <t>MJPG 352×288P 30(P 11:9)</t>
-  </si>
-  <si>
-    <t>13091</t>
-  </si>
-  <si>
-    <t>MJPG 480×270P 30(P 16:9)</t>
-  </si>
-  <si>
-    <t>16661</t>
-  </si>
-  <si>
-    <t>MJPG 640×360P 30(P 16:9)</t>
-  </si>
-  <si>
-    <t>25331</t>
-  </si>
-  <si>
-    <t>MJPG 640×480P 30(P 4:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 30.04</t>
-  </si>
-  <si>
-    <t>29596</t>
-  </si>
-  <si>
-    <t>MJPG 800×600P 30(P 4:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 29.99</t>
-  </si>
-  <si>
-    <t>40827</t>
-  </si>
-  <si>
-    <t>MJPG 960×540P 30(P 16:9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 30.18</t>
-  </si>
-  <si>
-    <t>50826</t>
-  </si>
-  <si>
-    <t>MJPG 1024×576P 30(P 16:9)</t>
-  </si>
-  <si>
-    <t>47256</t>
-  </si>
-  <si>
-    <t>MJPG 1280×720P 30(P 16:9)</t>
-  </si>
-  <si>
-    <t>65204</t>
-  </si>
-  <si>
-    <t>MJPG 2560×1440P 30(P 16:9)</t>
-  </si>
-  <si>
-    <t>124503</t>
-  </si>
-  <si>
-    <t>MJPG 3840×2160P 30(P 16:9)</t>
-  </si>
-  <si>
-    <t>176314</t>
-  </si>
-  <si>
-    <t>H264 1920×1080P 30(P 16:9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 29.56</t>
-  </si>
-  <si>
-    <t>12981</t>
-  </si>
-  <si>
-    <t>H264 1280×720P 30(P 16:9)</t>
-  </si>
-  <si>
-    <t>10742</t>
-  </si>
-  <si>
-    <t>H264 1024×576P 30(P 16:9)</t>
-  </si>
-  <si>
-    <t>5713</t>
-  </si>
-  <si>
-    <t>H264 960×540P 30(P 16:9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 29.5</t>
-  </si>
-  <si>
-    <t>12356</t>
-  </si>
-  <si>
-    <t>H264 800×600P 30(P 4:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 29.73</t>
-  </si>
-  <si>
-    <t>11037</t>
-  </si>
-  <si>
-    <t>H264 640×480P 30(P 4:3)</t>
-  </si>
-  <si>
-    <t>4598</t>
-  </si>
-  <si>
-    <t>H264 640×360P 30(P 16:9)</t>
-  </si>
-  <si>
-    <t>4641</t>
-  </si>
-  <si>
-    <t>H264 480×270P 30(P 16:9)</t>
-  </si>
-  <si>
-    <t>4579</t>
-  </si>
-  <si>
-    <t>H264 352×288P 30(P 11:9)</t>
-  </si>
-  <si>
-    <t>3109</t>
-  </si>
-  <si>
-    <t>H264 320×240P 30(P 4:3)</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>H264 320×180P 30(P 16:9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 29.76</t>
-  </si>
-  <si>
-    <t>2427</t>
-  </si>
-  <si>
-    <t>H264 2560×1440P 30(P 16:9)</t>
-  </si>
-  <si>
-    <t>17738</t>
-  </si>
-  <si>
-    <t>H264 3840×2160P 30(P 16:9)</t>
-  </si>
-  <si>
-    <t>16938</t>
-  </si>
-  <si>
-    <t>H265 1920×1080P 30(P 16:9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 29.8</t>
-  </si>
-  <si>
-    <t>12984</t>
-  </si>
-  <si>
-    <t>H265 1280×720P 30(P 16:9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 28.44</t>
-  </si>
-  <si>
-    <t>7566</t>
-  </si>
-  <si>
-    <t>H265 1024×576P 30(P 16:9)</t>
-  </si>
-  <si>
-    <t>5201</t>
-  </si>
-  <si>
-    <t>H265 960×540P 30(P 16:9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 30.06</t>
-  </si>
-  <si>
-    <t>12260</t>
-  </si>
-  <si>
-    <t>H265 800×600P 30(P 4:3)</t>
-  </si>
-  <si>
-    <t>12513</t>
-  </si>
-  <si>
-    <t>H265 640×480P 30(P 4:3)</t>
-  </si>
-  <si>
-    <t>4368</t>
-  </si>
-  <si>
-    <t>H265 640×360P 30(P 16:9)</t>
-  </si>
-  <si>
-    <t>4244</t>
-  </si>
-  <si>
-    <t>H265 480×270P 30(P 16:9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 28.87</t>
-  </si>
-  <si>
-    <t>4044</t>
-  </si>
-  <si>
-    <t>H265 352×288P 30(P 11:9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 29.32</t>
-  </si>
-  <si>
-    <t>2916</t>
-  </si>
-  <si>
-    <t>H265 320×240P 30(P 4:3)</t>
-  </si>
-  <si>
-    <t>2632</t>
-  </si>
-  <si>
-    <t>H265 320×180P 30(P 16:9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 29.55</t>
-  </si>
-  <si>
-    <t>2293</t>
-  </si>
-  <si>
-    <t>H265 2560×1440P 30(P 16:9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 28.63</t>
-  </si>
-  <si>
-    <t>15521</t>
-  </si>
-  <si>
-    <t>H265 3840×2160P 30(P 16:9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 27.94</t>
-  </si>
-  <si>
-    <t>15406</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -797,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -850,13 +852,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -864,13 +866,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -878,13 +880,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -892,13 +894,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -906,13 +908,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -920,13 +922,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -934,13 +936,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -948,13 +950,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -962,13 +964,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -976,13 +978,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -990,13 +992,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -1004,13 +1006,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -1018,13 +1020,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
         <v>40</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
@@ -1032,13 +1034,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
         <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -1046,13 +1048,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -1060,13 +1062,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -1074,13 +1076,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -1088,13 +1090,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -1102,13 +1104,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
         <v>54</v>
-      </c>
-      <c r="C22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
@@ -1116,13 +1118,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
         <v>57</v>
-      </c>
-      <c r="C23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -1130,13 +1132,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
         <v>60</v>
-      </c>
-      <c r="C24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
@@ -1144,13 +1146,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
@@ -1158,13 +1160,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
@@ -1172,13 +1174,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
@@ -1186,13 +1188,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
@@ -1200,13 +1202,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" t="s">
         <v>71</v>
-      </c>
-      <c r="C29" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
@@ -1214,13 +1216,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
@@ -1228,13 +1230,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
@@ -1242,13 +1244,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" t="s">
         <v>78</v>
-      </c>
-      <c r="C32" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
@@ -1256,13 +1258,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" t="s">
         <v>81</v>
-      </c>
-      <c r="C33" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
@@ -1270,13 +1272,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
@@ -1284,13 +1286,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
@@ -1298,13 +1300,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D36" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
@@ -1312,13 +1314,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
@@ -1326,13 +1328,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
@@ -1340,13 +1342,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" t="s">
         <v>94</v>
-      </c>
-      <c r="C39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D39" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
@@ -1354,13 +1356,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
@@ -1368,13 +1370,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
@@ -1382,13 +1384,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" t="s">
         <v>101</v>
-      </c>
-      <c r="C42" t="s">
-        <v>102</v>
-      </c>
-      <c r="D42" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
@@ -1396,13 +1398,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" t="s">
         <v>104</v>
-      </c>
-      <c r="C43" t="s">
-        <v>105</v>
-      </c>
-      <c r="D43" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
@@ -1410,13 +1412,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C44" t="s">
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
@@ -1424,13 +1426,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" t="s">
         <v>109</v>
-      </c>
-      <c r="C45" t="s">
-        <v>110</v>
-      </c>
-      <c r="D45" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
@@ -1438,13 +1440,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C46" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
@@ -1452,13 +1454,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
@@ -1466,13 +1468,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C48" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D48" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
@@ -1480,13 +1482,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" t="s">
         <v>118</v>
-      </c>
-      <c r="C49" t="s">
-        <v>119</v>
-      </c>
-      <c r="D49" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
@@ -1494,13 +1496,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" t="s">
         <v>121</v>
-      </c>
-      <c r="C50" t="s">
-        <v>122</v>
-      </c>
-      <c r="D50" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
@@ -1508,13 +1510,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C51" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D51" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
@@ -1522,13 +1524,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" t="s">
         <v>126</v>
-      </c>
-      <c r="C52" t="s">
-        <v>127</v>
-      </c>
-      <c r="D52" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
@@ -1536,13 +1538,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D53" t="s">
         <v>129</v>
-      </c>
-      <c r="C53" t="s">
-        <v>130</v>
-      </c>
-      <c r="D53" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
@@ -1550,13 +1552,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" t="s">
+        <v>131</v>
+      </c>
+      <c r="D54" t="s">
         <v>132</v>
-      </c>
-      <c r="C54" t="s">
-        <v>133</v>
-      </c>
-      <c r="D54" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/windows_control/第1次测试_resolutionTest.xlsx
+++ b/windows_control/第1次测试_resolutionTest.xlsx
@@ -8,14 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\pythonProject_seevision\windows_control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56917C5-443A-447C-ACAF-2D97808CCA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465B3625-B966-4929-8E13-0F5D3764DD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4950" yWindow="1335" windowWidth="25635" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -800,7 +809,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/windows_control/第1次测试_resolutionTest.xlsx
+++ b/windows_control/第1次测试_resolutionTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\pythonProject_seevision\windows_control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465B3625-B966-4929-8E13-0F5D3764DD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385F9579-F25F-416F-89A8-4A150DC481E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4950" yWindow="1335" windowWidth="25635" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -809,7 +809,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
